--- a/Frameworks/excel/demo.xlsx
+++ b/Frameworks/excel/demo.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>pavan</t>
   </si>
@@ -23,6 +24,12 @@
   </si>
   <si>
     <t>selenium</t>
+  </si>
+  <si>
+    <t>pavankishoerock</t>
+  </si>
+  <si>
+    <t>blueinkbottle</t>
   </si>
 </sst>
 </file>
@@ -366,7 +373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -388,4 +395,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>